--- a/Unity/Assets/Config/Excel/Data/MonsterConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/MonsterConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="14540" activeTab="1"/>
+    <workbookView windowWidth="29120" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceMonster" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>ResourceName</t>
+  </si>
+  <si>
+    <t>ViewDistance</t>
   </si>
   <si>
     <t>##type</t>
@@ -451,24 +454,12 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -795,7 +786,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,16 +810,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -837,89 +828,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,12 +918,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1254,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1270,153 +1255,162 @@
     <col min="15" max="15" width="24.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:15">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:16">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1457,10 +1451,13 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="P5">
+        <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:16">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1501,10 +1498,13 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="P6">
+        <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:16">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1545,10 +1545,13 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="P7">
+        <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:16">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1589,10 +1592,13 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:16">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1633,10 +1639,13 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:16">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1677,10 +1686,13 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:16">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1721,7 +1733,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="P11">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -1734,10 +1749,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1751,155 +1766,156 @@
     <col min="11" max="11" width="15.1538461538462" customWidth="1"/>
     <col min="12" max="12" width="17.6153846153846" customWidth="1"/>
     <col min="13" max="13" width="24.1538461538462" customWidth="1"/>
+    <col min="14" max="14" width="14.4615384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1934,7 +1950,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="N5">
+        <v>90000</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Data/MonsterConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/MonsterConfig.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
-    <sheet name="ResourceMonster" sheetId="1" r:id="rId1"/>
-    <sheet name="ResourceExtraBoss" sheetId="2" r:id="rId2"/>
+    <sheet name="MonsterConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,7 +19,7 @@
     <author>liuwei</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,83 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t>liuwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-相对于Assets/Bundles路径</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>liuwei</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t>liuwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-单位m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t>liuwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-单位m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -175,6 +98,12 @@
     <t>Id</t>
   </si>
   <si>
+    <t>UnitConfigId</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -232,18 +161,15 @@
     <t>string</t>
   </si>
   <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
+    <t>Unit配置Id</t>
+  </si>
+  <si>
+    <t>组编号</t>
+  </si>
+  <si>
     <t>血量</t>
   </si>
   <si>
@@ -275,9 +201,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>资源名称</t>
   </si>
 </sst>
 </file>
@@ -1239,23 +1162,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="5" max="5" width="12.5384615384615" customWidth="1"/>
-    <col min="6" max="10" width="12.0769230769231" customWidth="1"/>
-    <col min="11" max="11" width="15.1538461538462" customWidth="1"/>
-    <col min="12" max="13" width="17.6153846153846" customWidth="1"/>
-    <col min="14" max="14" width="19.3076923076923" customWidth="1"/>
-    <col min="15" max="15" width="24.1538461538462" customWidth="1"/>
+    <col min="3" max="3" width="13.8461538461538" customWidth="1"/>
+    <col min="4" max="4" width="9.38461538461539" customWidth="1"/>
+    <col min="7" max="7" width="12.5384615384615" customWidth="1"/>
+    <col min="8" max="12" width="12.0769230769231" customWidth="1"/>
+    <col min="13" max="13" width="15.1538461538462" customWidth="1"/>
+    <col min="14" max="15" width="17.6153846153846" customWidth="1"/>
+    <col min="16" max="16" width="19.3076923076923" customWidth="1"/>
+    <col min="17" max="17" width="24.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,656 +1229,518 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
+    <row r="2" s="2" customFormat="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="2:18">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C4">
+        <v>1002</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>300</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1003</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>300</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1004</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1005</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>20000</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>300</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1006</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>120000</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>300</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8">
+        <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5">
+    <row r="9" spans="2:18">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1007</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>300000</v>
+      </c>
+      <c r="F9">
+        <v>4000</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>160</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>300</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1008</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2000000</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="J10">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
         <v>300</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5">
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6">
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1009</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1010</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>300</v>
-      </c>
-      <c r="N6">
+      <c r="C13">
+        <v>1011</v>
+      </c>
+      <c r="D13">
         <v>2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>300</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>20000</v>
-      </c>
-      <c r="D8">
-        <v>500</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>300</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>120000</v>
-      </c>
-      <c r="D9">
-        <v>2000</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>300</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>300000</v>
-      </c>
-      <c r="D10">
-        <v>4000</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>300</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2000000</v>
-      </c>
-      <c r="D11">
-        <v>10000</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>30</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>300</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11">
-        <v>5000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
-  <cols>
-    <col min="5" max="5" width="12.5384615384615" customWidth="1"/>
-    <col min="6" max="6" width="10.4615384615385" customWidth="1"/>
-    <col min="7" max="7" width="12.0769230769231" customWidth="1"/>
-    <col min="8" max="8" width="10.3846153846154" customWidth="1"/>
-    <col min="9" max="9" width="10.3076923076923" customWidth="1"/>
-    <col min="10" max="10" width="11.2307692307692" customWidth="1"/>
-    <col min="11" max="11" width="15.1538461538462" customWidth="1"/>
-    <col min="12" max="12" width="17.6153846153846" customWidth="1"/>
-    <col min="13" max="13" width="24.1538461538462" customWidth="1"/>
-    <col min="14" max="14" width="14.4615384615385" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>6000</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>300</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5">
-        <v>90000</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Data/MonsterConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/MonsterConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterConfig" sheetId="1" r:id="rId1"/>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1268,7 +1268,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>19</v>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1003</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1004</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1006</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1007</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1662,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1008</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1009</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>1010</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1011</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
